--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.666083666666667</v>
+        <v>0.05800433333333333</v>
       </c>
       <c r="H2">
-        <v>4.998251</v>
+        <v>0.174013</v>
       </c>
       <c r="I2">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="J2">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N2">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q2">
-        <v>0.1590360164016666</v>
+        <v>0.019762482397</v>
       </c>
       <c r="R2">
-        <v>1.431324147615</v>
+        <v>0.177862341573</v>
       </c>
       <c r="S2">
-        <v>0.01961222319763608</v>
+        <v>0.002204830751725631</v>
       </c>
       <c r="T2">
-        <v>0.01961222319763608</v>
+        <v>0.002204830751725631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.666083666666667</v>
+        <v>0.05800433333333333</v>
       </c>
       <c r="H3">
-        <v>4.998251</v>
+        <v>0.174013</v>
       </c>
       <c r="I3">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="J3">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.660931</v>
       </c>
       <c r="O3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q3">
-        <v>2.033139114631222</v>
+        <v>0.07078328734477776</v>
       </c>
       <c r="R3">
-        <v>18.298252031681</v>
+        <v>0.637049586103</v>
       </c>
       <c r="S3">
-        <v>0.2507254583595937</v>
+        <v>0.007897042765725065</v>
       </c>
       <c r="T3">
-        <v>0.2507254583595937</v>
+        <v>0.007897042765725065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.666083666666667</v>
+        <v>0.05800433333333333</v>
       </c>
       <c r="H4">
-        <v>4.998251</v>
+        <v>0.174013</v>
       </c>
       <c r="I4">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="J4">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N4">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q4">
-        <v>2.774826803715111</v>
+        <v>0.09660497974088887</v>
       </c>
       <c r="R4">
-        <v>24.973441233436</v>
+        <v>0.8694448176679999</v>
       </c>
       <c r="S4">
-        <v>0.3421899255310671</v>
+        <v>0.01077787829604226</v>
       </c>
       <c r="T4">
-        <v>0.3421899255310671</v>
+        <v>0.01077787829604226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.053930333333333</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H5">
-        <v>3.161791</v>
+        <v>4.998251</v>
       </c>
       <c r="I5">
-        <v>0.3874723929117032</v>
+        <v>0.5997381826733804</v>
       </c>
       <c r="J5">
-        <v>0.3874723929117031</v>
+        <v>0.5997381826733805</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N5">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q5">
-        <v>0.1006029199683333</v>
+        <v>0.5676463678189998</v>
       </c>
       <c r="R5">
-        <v>0.9054262797149999</v>
+        <v>5.108817310370999</v>
       </c>
       <c r="S5">
-        <v>0.01240628987945523</v>
+        <v>0.06333031158386666</v>
       </c>
       <c r="T5">
-        <v>0.01240628987945522</v>
+        <v>0.06333031158386666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.053930333333333</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H6">
-        <v>3.161791</v>
+        <v>4.998251</v>
       </c>
       <c r="I6">
-        <v>0.3874723929117032</v>
+        <v>0.5997381826733804</v>
       </c>
       <c r="J6">
-        <v>0.3874723929117031</v>
+        <v>0.5997381826733805</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.660931</v>
       </c>
       <c r="O6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q6">
-        <v>1.286122076380111</v>
+        <v>2.033139114631222</v>
       </c>
       <c r="R6">
-        <v>11.575098687421</v>
+        <v>18.298252031681</v>
       </c>
       <c r="S6">
-        <v>0.1586037791443924</v>
+        <v>0.2268301902778991</v>
       </c>
       <c r="T6">
-        <v>0.1586037791443923</v>
+        <v>0.2268301902778992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.666083666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.998251</v>
+      </c>
+      <c r="I7">
+        <v>0.5997381826733804</v>
+      </c>
+      <c r="J7">
+        <v>0.5997381826733805</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.665478666666666</v>
+      </c>
+      <c r="N7">
+        <v>4.996435999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.5161880463098875</v>
+      </c>
+      <c r="P7">
+        <v>0.5161880463098875</v>
+      </c>
+      <c r="Q7">
+        <v>2.77482680371511</v>
+      </c>
+      <c r="R7">
+        <v>24.973441233436</v>
+      </c>
+      <c r="S7">
+        <v>0.3095776808116146</v>
+      </c>
+      <c r="T7">
+        <v>0.3095776808116147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.161791</v>
+      </c>
+      <c r="I8">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="J8">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3407069999999999</v>
+      </c>
+      <c r="N8">
+        <v>1.022121</v>
+      </c>
+      <c r="O8">
+        <v>0.1055965976712818</v>
+      </c>
+      <c r="P8">
+        <v>0.1055965976712818</v>
+      </c>
+      <c r="Q8">
+        <v>0.3590814420789999</v>
+      </c>
+      <c r="R8">
+        <v>3.231732978710999</v>
+      </c>
+      <c r="S8">
+        <v>0.0400614553356895</v>
+      </c>
+      <c r="T8">
+        <v>0.04006145533568949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1.053930333333333</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>3.161791</v>
       </c>
-      <c r="I7">
-        <v>0.3874723929117032</v>
-      </c>
-      <c r="J7">
-        <v>0.3874723929117031</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.665478666666667</v>
-      </c>
-      <c r="N7">
-        <v>4.996436000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.5586522494189228</v>
-      </c>
-      <c r="P7">
-        <v>0.5586522494189228</v>
-      </c>
-      <c r="Q7">
-        <v>1.755298486319556</v>
-      </c>
-      <c r="R7">
+      <c r="I9">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="J9">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.220310333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.660931</v>
+      </c>
+      <c r="O9">
+        <v>0.3782153560188308</v>
+      </c>
+      <c r="P9">
+        <v>0.3782153560188308</v>
+      </c>
+      <c r="Q9">
+        <v>1.286122076380111</v>
+      </c>
+      <c r="R9">
+        <v>11.575098687421</v>
+      </c>
+      <c r="S9">
+        <v>0.1434881229752066</v>
+      </c>
+      <c r="T9">
+        <v>0.1434881229752066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.161791</v>
+      </c>
+      <c r="I10">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="J10">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.665478666666666</v>
+      </c>
+      <c r="N10">
+        <v>4.996435999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5161880463098875</v>
+      </c>
+      <c r="P10">
+        <v>0.5161880463098875</v>
+      </c>
+      <c r="Q10">
+        <v>1.755298486319555</v>
+      </c>
+      <c r="R10">
         <v>15.797686376876</v>
       </c>
-      <c r="S7">
-        <v>0.2164623238878557</v>
-      </c>
-      <c r="T7">
-        <v>0.2164623238878556</v>
+      <c r="S10">
+        <v>0.1958324872022305</v>
+      </c>
+      <c r="T10">
+        <v>0.1958324872022305</v>
       </c>
     </row>
   </sheetData>
